--- a/Excel_Files/Stats_Populations/2.5_cm/701_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2.5_cm/701_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002780488599743861</v>
+        <v>0.0005372880405780582</v>
       </c>
       <c r="D2">
-        <v>0.0004533396318596888</v>
+        <v>0.0007130748422505262</v>
       </c>
       <c r="E2">
-        <v>0.0002493391434097645</v>
+        <v>0.0004890223658998116</v>
       </c>
       <c r="F2">
-        <v>0.0002629322541382123</v>
+        <v>0.0004976174401761248</v>
       </c>
       <c r="G2">
-        <v>0.0001549163061035128</v>
+        <v>0.0003282723882649235</v>
       </c>
       <c r="H2">
-        <v>0.0004533396318596888</v>
+        <v>0.0007130748422505262</v>
       </c>
       <c r="I2">
-        <v>0.0004715195119387309</v>
+        <v>0.0007995908756464057</v>
       </c>
       <c r="J2">
-        <v>0.0006026223191793422</v>
+        <v>0.0009483440957864437</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001311654532495015</v>
+        <v>0.000293486732429881</v>
       </c>
       <c r="D3">
-        <v>0.0003594352798867936</v>
+        <v>0.0006060564849976288</v>
       </c>
       <c r="E3">
-        <v>0.0001864592670150743</v>
+        <v>0.0003857910166292018</v>
       </c>
       <c r="F3">
-        <v>6.967876245423883E-05</v>
+        <v>0.0001756980931197887</v>
       </c>
       <c r="G3">
-        <v>9.830534337445356E-05</v>
+        <v>0.0002328147710679596</v>
       </c>
       <c r="H3">
-        <v>0.0001865292545707442</v>
+        <v>0.0003858393007189853</v>
       </c>
       <c r="I3">
-        <v>0.0002365119511730864</v>
+        <v>0.0004678642126331396</v>
       </c>
       <c r="J3">
-        <v>0.000146641514257509</v>
+        <v>0.0003169434389550683</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7.691373062294357E-05</v>
+        <v>0.0001904146329133746</v>
       </c>
       <c r="D4">
-        <v>0.0001498757131822856</v>
+        <v>0.0003251012881828336</v>
       </c>
       <c r="E4">
-        <v>0.0001292305121991841</v>
+        <v>0.0002893945085556315</v>
       </c>
       <c r="F4">
-        <v>3.948017643208279E-05</v>
+        <v>0.0001106969345992176</v>
       </c>
       <c r="G4">
-        <v>3.372342172482982E-05</v>
+        <v>9.571023046087028E-05</v>
       </c>
       <c r="H4">
-        <v>9.394008294574698E-05</v>
+        <v>0.000223968117772196</v>
       </c>
       <c r="I4">
-        <v>0.0001497225754037091</v>
+        <v>0.0003275778748740717</v>
       </c>
       <c r="J4">
-        <v>4.294525313953812E-05</v>
+        <v>0.0001167057064405344</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>3.61450490007281E-06</v>
+        <v>1.504445443496926E-05</v>
       </c>
       <c r="D5">
-        <v>4.761215181117091E-06</v>
+        <v>1.892854953265445E-05</v>
       </c>
       <c r="E5">
-        <v>3.840058967940737E-06</v>
+        <v>1.589191536383849E-05</v>
       </c>
       <c r="F5">
-        <v>1.828186952609686E-06</v>
+        <v>8.523111019363688E-06</v>
       </c>
       <c r="G5">
-        <v>9.822215615195406E-07</v>
+        <v>5.144284469586054E-06</v>
       </c>
       <c r="H5">
-        <v>2.12112451265968E-06</v>
+        <v>9.630718519139366E-06</v>
       </c>
       <c r="I5">
-        <v>3.113144573445373E-06</v>
+        <v>1.313096515191491E-05</v>
       </c>
       <c r="J5">
-        <v>2.865377357149587E-06</v>
+        <v>1.19547969288319E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.169294244522906E-06</v>
+        <v>9.766947230051551E-06</v>
       </c>
       <c r="D6">
-        <v>2.124443807799163E-06</v>
+        <v>9.773915090686118E-06</v>
       </c>
       <c r="E6">
-        <v>1.794477133038935E-06</v>
+        <v>8.402987933221863E-06</v>
       </c>
       <c r="F6">
-        <v>7.643242786331997E-07</v>
+        <v>4.094959839287955E-06</v>
       </c>
       <c r="G6">
-        <v>5.469571607749232E-07</v>
+        <v>3.140979900800662E-06</v>
       </c>
       <c r="H6">
-        <v>8.103891288889736E-07</v>
+        <v>4.356507563376186E-06</v>
       </c>
       <c r="I6">
-        <v>2.042586230918428E-06</v>
+        <v>9.193262588171588E-06</v>
       </c>
       <c r="J6">
-        <v>1.771080281953493E-06</v>
+        <v>8.107903948398521E-06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.293094204077521E-06</v>
+        <v>6.480732053428168E-06</v>
       </c>
       <c r="D7">
-        <v>7.89014985560172E-07</v>
+        <v>4.279298290940521E-06</v>
       </c>
       <c r="E7">
-        <v>4.491690561372153E-07</v>
+        <v>2.64932933649509E-06</v>
       </c>
       <c r="F7">
-        <v>1.778912164116191E-07</v>
+        <v>1.223015214890567E-06</v>
       </c>
       <c r="G7">
-        <v>2.35694356968833E-07</v>
+        <v>1.570687414016578E-06</v>
       </c>
       <c r="H7">
-        <v>1.778912164116191E-07</v>
+        <v>1.223015214890567E-06</v>
       </c>
       <c r="I7">
-        <v>1.215367887249298E-06</v>
+        <v>6.031643755734812E-06</v>
       </c>
       <c r="J7">
-        <v>9.917580709471013E-07</v>
+        <v>5.078907799566265E-06</v>
       </c>
     </row>
   </sheetData>
